--- a/Pedestrian/Data_0810/confidence_change_statistic.xlsx
+++ b/Pedestrian/Data_0810/confidence_change_statistic.xlsx
@@ -7,6 +7,16 @@
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <s:sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <s:sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <s:sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <s:sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <s:sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <s:sheet name="Sheet8" sheetId="9" r:id="rId9"/>
+    <s:sheet name="Sheet9" sheetId="10" r:id="rId10"/>
+    <s:sheet name="Sheet10" sheetId="11" r:id="rId11"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -365,6 +375,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -392,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -403,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -414,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3330</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -425,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -436,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>4699</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -447,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -458,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>4893</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -469,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>407</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -480,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>7152</v>
+        <v>9527</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -491,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>2500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>271532</v>
+        <v>488548</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -513,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>258822</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -524,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>34341</v>
+        <v>109308</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -535,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125121</v>
+        <v>50159</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -546,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>5843</v>
+        <v>20049</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -557,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>32797</v>
+        <v>18591</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -568,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>847</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -579,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>5666</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -590,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>51</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -601,7 +629,2257 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>530349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>159467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>49386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>480963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>153974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>99790</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>430559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>148254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>151364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>378985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>142160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>208145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>322204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>134818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>271530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>258819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>34343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>125124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
         <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>336380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>193969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>47116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>112351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>395687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>134662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>63400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>96067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>446010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>84339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>83759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>75708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
